--- a/07-RTM (Opencart).xlsx
+++ b/07-RTM (Opencart).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Classic Computer\Desktop\report\OpenCart-Manual_Testing project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78D5E44-2283-455B-BA1D-B13F444392B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA77806-4451-4F54-AE71-85F456E5253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="342">
   <si>
     <t>Project Name</t>
   </si>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>TC_CR_003</t>
+  </si>
+  <si>
+    <t>sakil</t>
   </si>
 </sst>
 </file>
@@ -1348,14 +1351,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1579,7 +1582,7 @@
   <dimension ref="A1:I265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1643,7 +1646,9 @@
       <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="28" t="s">
+        <v>341</v>
+      </c>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -1728,16 +1733,16 @@
       <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>1.1000000000000001</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4436,7 +4441,7 @@
       <c r="B195" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C195" s="37" t="s">
+      <c r="C195" s="39" t="s">
         <v>253</v>
       </c>
       <c r="D195" s="33" t="s">
@@ -4724,7 +4729,7 @@
       <c r="B215" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C215" s="37" t="s">
+      <c r="C215" s="39" t="s">
         <v>276</v>
       </c>
       <c r="D215" s="33" t="s">
@@ -5473,6 +5478,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="D185:D194"/>
+    <mergeCell ref="C185:C194"/>
+    <mergeCell ref="B185:B194"/>
+    <mergeCell ref="A185:A194"/>
+    <mergeCell ref="C195:C214"/>
+    <mergeCell ref="B195:B214"/>
+    <mergeCell ref="A195:A214"/>
+    <mergeCell ref="D195:D214"/>
+    <mergeCell ref="A250:A262"/>
+    <mergeCell ref="D250:D262"/>
+    <mergeCell ref="D215:D223"/>
+    <mergeCell ref="C215:C223"/>
+    <mergeCell ref="B215:B223"/>
+    <mergeCell ref="A215:A223"/>
+    <mergeCell ref="D224:D236"/>
+    <mergeCell ref="C224:C236"/>
+    <mergeCell ref="D237:D249"/>
+    <mergeCell ref="C237:C249"/>
+    <mergeCell ref="A237:A249"/>
+    <mergeCell ref="B237:B249"/>
+    <mergeCell ref="D10:D33"/>
+    <mergeCell ref="C10:C33"/>
+    <mergeCell ref="B10:B33"/>
+    <mergeCell ref="A10:A33"/>
+    <mergeCell ref="C34:C56"/>
+    <mergeCell ref="B34:B56"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="B68:B92"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="D34:D56"/>
+    <mergeCell ref="D57:D67"/>
+    <mergeCell ref="C57:C67"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="D68:D92"/>
+    <mergeCell ref="C68:C92"/>
+    <mergeCell ref="D93:D114"/>
+    <mergeCell ref="C93:C114"/>
+    <mergeCell ref="B93:B114"/>
+    <mergeCell ref="A93:A114"/>
+    <mergeCell ref="C115:C138"/>
+    <mergeCell ref="B115:B138"/>
+    <mergeCell ref="A115:A138"/>
+    <mergeCell ref="D115:D138"/>
     <mergeCell ref="D139:D175"/>
     <mergeCell ref="C139:C175"/>
     <mergeCell ref="B139:B175"/>
@@ -5489,50 +5538,6 @@
     <mergeCell ref="B250:B262"/>
     <mergeCell ref="B224:B236"/>
     <mergeCell ref="A224:A236"/>
-    <mergeCell ref="D93:D114"/>
-    <mergeCell ref="C93:C114"/>
-    <mergeCell ref="B93:B114"/>
-    <mergeCell ref="A93:A114"/>
-    <mergeCell ref="C115:C138"/>
-    <mergeCell ref="B115:B138"/>
-    <mergeCell ref="A115:A138"/>
-    <mergeCell ref="D115:D138"/>
-    <mergeCell ref="B68:B92"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="D34:D56"/>
-    <mergeCell ref="D57:D67"/>
-    <mergeCell ref="C57:C67"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="D68:D92"/>
-    <mergeCell ref="C68:C92"/>
-    <mergeCell ref="D10:D33"/>
-    <mergeCell ref="C10:C33"/>
-    <mergeCell ref="B10:B33"/>
-    <mergeCell ref="A10:A33"/>
-    <mergeCell ref="C34:C56"/>
-    <mergeCell ref="B34:B56"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="A250:A262"/>
-    <mergeCell ref="D250:D262"/>
-    <mergeCell ref="D215:D223"/>
-    <mergeCell ref="C215:C223"/>
-    <mergeCell ref="B215:B223"/>
-    <mergeCell ref="A215:A223"/>
-    <mergeCell ref="D224:D236"/>
-    <mergeCell ref="C224:C236"/>
-    <mergeCell ref="D237:D249"/>
-    <mergeCell ref="C237:C249"/>
-    <mergeCell ref="A237:A249"/>
-    <mergeCell ref="B237:B249"/>
-    <mergeCell ref="D185:D194"/>
-    <mergeCell ref="C185:C194"/>
-    <mergeCell ref="B185:B194"/>
-    <mergeCell ref="A185:A194"/>
-    <mergeCell ref="C195:C214"/>
-    <mergeCell ref="B195:B214"/>
-    <mergeCell ref="A195:A214"/>
-    <mergeCell ref="D195:D214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
